--- a/DocumentosRegistro/Tabela.xlsx
+++ b/DocumentosRegistro/Tabela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\okaua\Desktop\HouseHub\DocumentosRegistro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A853F2-C2F7-4E77-9976-0CA1D13EEDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58C1C6D-9FB3-4423-8509-00FF9CD025E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15765" tabRatio="570" activeTab="1" xr2:uid="{4A10EE52-3FC1-4B1E-8C93-E4F6FF910C78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15765" tabRatio="570" activeTab="3" xr2:uid="{4A10EE52-3FC1-4B1E-8C93-E4F6FF910C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Contagem" sheetId="4" r:id="rId1"/>
@@ -862,12 +862,6 @@
     <t>Registro de Imagens</t>
   </si>
   <si>
-    <t>Registro de Imagens de Imóveis</t>
-  </si>
-  <si>
-    <t>Registro de Imagens de Solicitações de reparo</t>
-  </si>
-  <si>
     <t>Registro de Solicitação de Reparo</t>
   </si>
   <si>
@@ -974,6 +968,12 @@
   </si>
   <si>
     <t>Kauã de Oliveira Santos Menezes</t>
+  </si>
+  <si>
+    <t>Registro de Imagens de Imóveis R</t>
+  </si>
+  <si>
+    <t>Registro de Imagens de Solicitações de reparo R</t>
   </si>
 </sst>
 </file>
@@ -1758,15 +1758,15 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,15 +1778,15 @@
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5341,8 +5341,8 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A2:J204"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5383,7 +5383,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>4</v>
@@ -5397,7 +5397,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>4</v>
@@ -7447,8 +7447,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4132" r:id="rId4" name="TextBox5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="4112" r:id="rId4" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4112" r:id="rId4" name="CheckBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4115" r:id="rId6" name="CheckBox2">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4115" r:id="rId6" name="CheckBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4116" r:id="rId7" name="CheckBox3">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4116" r:id="rId7" name="CheckBox3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4119" r:id="rId8" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4119" r:id="rId8" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4122" r:id="rId10" name="TextBox2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4122" r:id="rId10" name="TextBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4125" r:id="rId12" name="TextBox3">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4125" r:id="rId12" name="TextBox3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4129" r:id="rId14" name="TextBox4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>150</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4129" r:id="rId14" name="TextBox4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4132" r:id="rId15" name="TextBox5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -7467,182 +7642,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4132" r:id="rId4" name="TextBox5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4129" r:id="rId6" name="TextBox4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>150</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4129" r:id="rId6" name="TextBox4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4125" r:id="rId7" name="TextBox3">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4125" r:id="rId7" name="TextBox3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4122" r:id="rId8" name="TextBox2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4122" r:id="rId8" name="TextBox2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4119" r:id="rId10" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4119" r:id="rId10" name="TextBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4116" r:id="rId12" name="CheckBox3">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4116" r:id="rId12" name="CheckBox3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4115" r:id="rId14" name="CheckBox2">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4115" r:id="rId14" name="CheckBox2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4112" r:id="rId15" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4112" r:id="rId15" name="CheckBox1"/>
+        <control shapeId="4132" r:id="rId15" name="TextBox5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7654,8 +7654,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:V324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7740,7 +7740,7 @@
         <v>Responsável : Walter Henrique Dos Anjos Santos</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="15"/>
@@ -8389,7 +8389,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>8</v>
@@ -8458,7 +8458,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>8</v>
@@ -8527,7 +8527,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>8</v>
@@ -8596,7 +8596,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>8</v>
@@ -8665,7 +8665,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>8</v>
@@ -8734,7 +8734,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>5</v>
@@ -8803,7 +8803,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>5</v>
@@ -8872,7 +8872,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>5</v>
@@ -8941,7 +8941,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>5</v>
@@ -9010,7 +9010,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>5</v>
@@ -9079,7 +9079,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>5</v>
@@ -9148,7 +9148,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" s="64" t="s">
         <v>5</v>
@@ -9235,7 +9235,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>5</v>
@@ -9304,7 +9304,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26" s="64" t="s">
         <v>5</v>
@@ -9373,7 +9373,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="64" t="s">
         <v>5</v>
@@ -9442,7 +9442,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="64" t="s">
         <v>5</v>
@@ -9511,7 +9511,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D29" s="64" t="s">
         <v>5</v>
@@ -9580,7 +9580,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="64" t="s">
         <v>5</v>
@@ -9649,7 +9649,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="64" t="s">
         <v>5</v>
@@ -9718,7 +9718,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="64" t="s">
         <v>5</v>
@@ -9787,7 +9787,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="64" t="s">
         <v>5</v>
@@ -9856,7 +9856,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>5</v>
@@ -9925,7 +9925,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="64" t="s">
         <v>5</v>
@@ -10050,7 +10050,7 @@
         <v>Responsável : Walter Henrique Dos Anjos Santos</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="15"/>
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>7</v>
@@ -10259,7 +10259,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="58" t="s">
         <v>7</v>
@@ -10354,7 +10354,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D44" s="58" t="s">
         <v>7</v>
@@ -10423,7 +10423,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45" s="58" t="s">
         <v>7</v>
@@ -10492,7 +10492,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D46" s="58" t="s">
         <v>7</v>
@@ -10561,7 +10561,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" s="58" t="s">
         <v>7</v>
@@ -10630,7 +10630,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>7</v>
@@ -10699,7 +10699,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>7</v>
@@ -10768,7 +10768,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>7</v>
@@ -10837,7 +10837,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D51" s="58" t="s">
         <v>7</v>
@@ -10906,7 +10906,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" s="58" t="s">
         <v>7</v>
@@ -10975,7 +10975,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D53" s="64" t="s">
         <v>6</v>
@@ -26490,6 +26490,70 @@
     <row r="324" spans="2:22" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A289:R289"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="E292:J292"/>
+    <mergeCell ref="K292:P292"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="K291:L291"/>
+    <mergeCell ref="A253:R253"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:J256"/>
+    <mergeCell ref="K256:P256"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="A217:R217"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="E220:J220"/>
+    <mergeCell ref="K220:P220"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="A181:R181"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:J184"/>
+    <mergeCell ref="K184:P184"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="A145:R145"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:J148"/>
+    <mergeCell ref="K148:P148"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="A109:R109"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:J112"/>
+    <mergeCell ref="K112:P112"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="A73:R73"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="K76:P76"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -26498,70 +26562,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A73:R73"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="K76:P76"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="A109:R109"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="K112:P112"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="A145:R145"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:J148"/>
-    <mergeCell ref="K148:P148"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="A181:R181"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:J184"/>
-    <mergeCell ref="K184:P184"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="A217:R217"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="E220:J220"/>
-    <mergeCell ref="K220:P220"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="A253:R253"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:J256"/>
-    <mergeCell ref="K256:P256"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="K255:L255"/>
-    <mergeCell ref="A289:R289"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="E292:J292"/>
-    <mergeCell ref="K292:P292"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="K291:L291"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.47244094488188981" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.23622047244094491"/>
@@ -26580,7 +26580,7 @@
   <dimension ref="A1:AV30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27191,7 +27191,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
